--- a/selenium/bot_numeros.xlsx
+++ b/selenium/bot_numeros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3b677e4e48291f5/Documentos/DESKTOP/Selenium/selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{EB0872BA-7E77-4072-BE33-3C3A1B9DD94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47D796C-2B11-4F33-8EEC-D5A4353B9FBA}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{EB0872BA-7E77-4072-BE33-3C3A1B9DD94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95AB494D-1C38-49DD-8CA6-CA30D42F298E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF4CFB64-1541-4153-99ED-2580D5F404E6}"/>
   </bookViews>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Fabricio</t>
+    <t>48 9861-8223</t>
   </si>
   <si>
-    <t>Ana</t>
+    <t>48 9928-6235</t>
+  </si>
+  <si>
+    <t>42 9841-0064</t>
   </si>
   <si>
     <t>48 9964-3332</t>
-  </si>
-  <si>
-    <t>48 9861-8223</t>
   </si>
 </sst>
 </file>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429C60DD-6F7E-4E6B-B584-ADCEEFF5993F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,19 +404,23 @@
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
